--- a/Mobile/coyni_mobile/resources/TestScript_2_3_customer_Sanity.xlsx
+++ b/Mobile/coyni_mobile/resources/TestScript_2_3_customer_Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COYNIv_2.3_Merchant\17-Apr-2023(Merchant)\coyni-automation\Mobile\coyni_mobile\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96F097-BBBD-43FB-AE22-71F2225C7542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60461DA9-CD9B-496F-985D-56684EFF11C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C6B0436-5574-461E-BCCD-7B4ECDABB879}"/>
   </bookViews>
@@ -1200,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B5A830-0A38-42CE-920B-F809AB40B2F3}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
